--- a/Inventory.WebApplication/bin/ExcelFiles/Report.xlsx
+++ b/Inventory.WebApplication/bin/ExcelFiles/Report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <x:si>
     <x:t>GroupedId</x:t>
   </x:si>
@@ -25,12 +25,18 @@
     <x:t>Name</x:t>
   </x:si>
   <x:si>
+    <x:t>Name_Arabic</x:t>
+  </x:si>
+  <x:si>
     <x:t>AvailabilityStatusID</x:t>
   </x:si>
   <x:si>
     <x:t>AvailabilityStatus</x:t>
   </x:si>
   <x:si>
+    <x:t>AvailabilityStatus_Arabic</x:t>
+  </x:si>
+  <x:si>
     <x:t>ItemStatusID</x:t>
   </x:si>
   <x:si>
@@ -67,6 +73,9 @@
     <x:t>Category</x:t>
   </x:si>
   <x:si>
+    <x:t>Category_Arabic</x:t>
+  </x:si>
+  <x:si>
     <x:t>SupplierID</x:t>
   </x:si>
   <x:si>
@@ -85,34 +94,37 @@
     <x:t>ReceivedOn</x:t>
   </x:si>
   <x:si>
-    <x:t>Board eraser</x:t>
+    <x:t>Computer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>كمبيوتر</x:t>
   </x:si>
   <x:si>
     <x:t>In Stock</x:t>
   </x:si>
   <x:si>
-    <x:t>Broom</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Dissection kit</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Plastic table </x:t>
-  </x:si>
-  <x:si>
-    <x:t>back (6)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Printer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Transferred to School</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Shelf 1 (1)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sponge</x:t>
+    <x:t>غرفة الاساتذة (1)</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Graduated Pippette </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pippette graduée</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Milliliter</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Deteriorized</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UPS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يو بي إس</x:t>
+  </x:si>
+  <x:si>
+    <x:t>خزان حديد</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -176,32 +188,35 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:W7" totalsRowShown="0">
-  <x:autoFilter ref="A1:W7"/>
-  <x:tableColumns count="23">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:Z6" totalsRowShown="0">
+  <x:autoFilter ref="A1:Z6"/>
+  <x:tableColumns count="26">
     <x:tableColumn id="1" name="GroupedId"/>
     <x:tableColumn id="2" name="ItemsIDs"/>
     <x:tableColumn id="3" name="Name"/>
-    <x:tableColumn id="4" name="AvailabilityStatusID"/>
-    <x:tableColumn id="5" name="AvailabilityStatus"/>
-    <x:tableColumn id="6" name="ItemStatusID"/>
-    <x:tableColumn id="7" name="ItemStatus"/>
-    <x:tableColumn id="8" name="LocationInStock"/>
-    <x:tableColumn id="9" name="ExpiryDate"/>
-    <x:tableColumn id="10" name="UnitID"/>
-    <x:tableColumn id="11" name="Unit"/>
-    <x:tableColumn id="12" name="UnitAmount"/>
-    <x:tableColumn id="13" name="Price"/>
-    <x:tableColumn id="14" name="TotalPrice"/>
-    <x:tableColumn id="15" name="Description"/>
-    <x:tableColumn id="16" name="CategoryID"/>
-    <x:tableColumn id="17" name="Category"/>
-    <x:tableColumn id="18" name="SupplierID"/>
-    <x:tableColumn id="19" name="Supplier"/>
-    <x:tableColumn id="20" name="Quantity"/>
-    <x:tableColumn id="21" name="QuantityIn"/>
-    <x:tableColumn id="22" name="QuantityOut"/>
-    <x:tableColumn id="23" name="ReceivedOn"/>
+    <x:tableColumn id="4" name="Name_Arabic"/>
+    <x:tableColumn id="5" name="AvailabilityStatusID"/>
+    <x:tableColumn id="6" name="AvailabilityStatus"/>
+    <x:tableColumn id="7" name="AvailabilityStatus_Arabic"/>
+    <x:tableColumn id="8" name="ItemStatusID"/>
+    <x:tableColumn id="9" name="ItemStatus"/>
+    <x:tableColumn id="10" name="LocationInStock"/>
+    <x:tableColumn id="11" name="ExpiryDate"/>
+    <x:tableColumn id="12" name="UnitID"/>
+    <x:tableColumn id="13" name="Unit"/>
+    <x:tableColumn id="14" name="UnitAmount"/>
+    <x:tableColumn id="15" name="Price"/>
+    <x:tableColumn id="16" name="TotalPrice"/>
+    <x:tableColumn id="17" name="Description"/>
+    <x:tableColumn id="18" name="CategoryID"/>
+    <x:tableColumn id="19" name="Category"/>
+    <x:tableColumn id="20" name="Category_Arabic"/>
+    <x:tableColumn id="21" name="SupplierID"/>
+    <x:tableColumn id="22" name="Supplier"/>
+    <x:tableColumn id="23" name="Quantity"/>
+    <x:tableColumn id="24" name="QuantityIn"/>
+    <x:tableColumn id="25" name="QuantityOut"/>
+    <x:tableColumn id="26" name="ReceivedOn"/>
   </x:tableColumns>
   <x:tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </x:table>
@@ -495,7 +510,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:W7"/>
+  <x:dimension ref="A1:Z6"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -503,30 +518,33 @@
   <x:cols>
     <x:col min="1" max="1" width="13.685425" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="11.955425" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="12.760625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="20.985425" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="20.200625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="15.605425" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="13.795425" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="18.055425" style="0" customWidth="1"/>
-    <x:col min="9" max="9" width="13.785425" style="0" customWidth="1"/>
-    <x:col min="10" max="10" width="9.995425" style="0" customWidth="1"/>
-    <x:col min="11" max="11" width="8.185425" style="0" customWidth="1"/>
-    <x:col min="12" max="12" width="15.075425" style="0" customWidth="1"/>
-    <x:col min="13" max="13" width="8.775425" style="0" customWidth="1"/>
-    <x:col min="14" max="14" width="13.085425" style="0" customWidth="1"/>
-    <x:col min="15" max="15" width="14.295425" style="0" customWidth="1"/>
-    <x:col min="16" max="16" width="14.005425" style="0" customWidth="1"/>
-    <x:col min="17" max="17" width="12.185425" style="0" customWidth="1"/>
-    <x:col min="18" max="18" width="13.375425" style="0" customWidth="1"/>
-    <x:col min="19" max="19" width="11.555425" style="0" customWidth="1"/>
-    <x:col min="20" max="20" width="12.005425" style="0" customWidth="1"/>
-    <x:col min="21" max="21" width="13.635425" style="0" customWidth="1"/>
-    <x:col min="22" max="22" width="15.195425" style="0" customWidth="1"/>
-    <x:col min="23" max="23" width="14.725425" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="18.670625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="16.085425" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="20.985425" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="19.165425" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="25.625425" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="15.605425" style="0" customWidth="1"/>
+    <x:col min="9" max="9" width="13.795425" style="0" customWidth="1"/>
+    <x:col min="10" max="10" width="18.055425" style="0" customWidth="1"/>
+    <x:col min="11" max="11" width="13.785425" style="0" customWidth="1"/>
+    <x:col min="12" max="12" width="9.995425" style="0" customWidth="1"/>
+    <x:col min="13" max="13" width="8.185425" style="0" customWidth="1"/>
+    <x:col min="14" max="14" width="15.075425" style="0" customWidth="1"/>
+    <x:col min="15" max="15" width="8.775425" style="0" customWidth="1"/>
+    <x:col min="16" max="16" width="13.085425" style="0" customWidth="1"/>
+    <x:col min="17" max="17" width="14.295425" style="0" customWidth="1"/>
+    <x:col min="18" max="18" width="14.005425" style="0" customWidth="1"/>
+    <x:col min="19" max="19" width="12.185425" style="0" customWidth="1"/>
+    <x:col min="20" max="20" width="18.645425" style="0" customWidth="1"/>
+    <x:col min="21" max="21" width="13.375425" style="0" customWidth="1"/>
+    <x:col min="22" max="22" width="11.555425" style="0" customWidth="1"/>
+    <x:col min="23" max="23" width="12.005425" style="0" customWidth="1"/>
+    <x:col min="24" max="24" width="13.635425" style="0" customWidth="1"/>
+    <x:col min="25" max="25" width="15.195425" style="0" customWidth="1"/>
+    <x:col min="26" max="26" width="14.725425" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:23">
+    <x:row r="1" spans="1:26">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -596,203 +614,198 @@
       <x:c r="W1" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
+      <x:c r="X1" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="Y1" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="Z1" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
     </x:row>
-    <x:row r="2" spans="1:23">
+    <x:row r="2" spans="1:26">
       <x:c r="A2" s="0" t="n">
-        <x:v>199</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="D2" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="E2" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="F2" s="0" t="n">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F2" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="H2" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J2" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="L2" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M2" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="R2" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="U2" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="W2" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:26">
+      <x:c r="A3" s="0" t="n">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="D3" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="E3" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F3" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="H3" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L3" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="M3" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="N3" s="0" t="n">
+        <x:v>250</x:v>
+      </x:c>
+      <x:c r="R3" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="U3" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="W3" s="0" t="n">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:26">
+      <x:c r="A4" s="0" t="n">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="E4" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="F4" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="H4" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L4" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="M4" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="N4" s="0" t="n">
+        <x:v>250</x:v>
+      </x:c>
+      <x:c r="R4" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="U4" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="W4" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:26">
+      <x:c r="A5" s="0" t="n">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="E5" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F5" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="H5" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L5" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M5" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="R5" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="U5" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="W5" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:26">
+      <x:c r="A6" s="0" t="n">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="E6" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F6" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="H6" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="L6" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M6" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="R6" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="U6" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="W6" s="0" t="n">
         <x:v>2</x:v>
-      </x:c>
-      <x:c r="J2" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="K2" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="P2" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="R2" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="T2" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:23">
-      <x:c r="A3" s="0" t="n">
-        <x:v>73</x:v>
-      </x:c>
-      <x:c r="C3" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="D3" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="E3" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="F3" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="J3" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="K3" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="P3" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="R3" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="T3" s="0" t="n">
-        <x:v>20</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:23">
-      <x:c r="A4" s="0" t="n">
-        <x:v>200</x:v>
-      </x:c>
-      <x:c r="C4" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="D4" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="E4" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="F4" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="J4" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="K4" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="P4" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="R4" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="T4" s="0" t="n">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:23">
-      <x:c r="A5" s="0" t="n">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="C5" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="D5" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="E5" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="F5" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="H5" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="J5" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="K5" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="P5" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="R5" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="T5" s="0" t="n">
-        <x:v>6</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:23">
-      <x:c r="A6" s="0" t="n">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="C6" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="D6" s="0" t="n">
-        <x:v>1002</x:v>
-      </x:c>
-      <x:c r="E6" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="F6" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="H6" s="0" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="J6" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="K6" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="P6" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="R6" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="T6" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:23">
-      <x:c r="A7" s="0" t="n">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="C7" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="D7" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="E7" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="F7" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="J7" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="K7" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="P7" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="R7" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="T7" s="0" t="n">
-        <x:v>100</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
